--- a/C# Learning Plan.xlsx
+++ b/C# Learning Plan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="79">
   <si>
     <t>产品设计</t>
   </si>
@@ -296,11 +296,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>NET\C#\C#的事件与委托\C#的委托\3.Func的使用</t>
+    <t>NET\C#\C#的事件与委托\应用实例\C#新开一个线程,如何更新主线程UI\2.Invoke和Delegate方式\ThreadUpdateUI\ThreadUpdateUI</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>NET\C#\C#的事件与委托\应用实例\C#新开一个线程,如何更新主线程UI\2.Invoke和Delegate方式\ThreadUpdateUI\ThreadUpdateUI</t>
+    <t>NET\C#\C#的事件与委托\C#的委托\6.委托的调用列表\MultiDelegate</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NET\C#\C#的事件与委托\C#的委托\3.Func的使用\FuncDelegate</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +666,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,12 +678,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,6 +696,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,153 +1086,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
       <c r="O1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="54" t="s">
+      <c r="P1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="56"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="54"/>
       <c r="W1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="54" t="s">
+      <c r="X1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="56"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="54"/>
       <c r="AE1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" s="54" t="s">
+      <c r="AF1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="56"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="54"/>
     </row>
     <row r="2" spans="1:38" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="45" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="44" t="s">
         <v>11</v>
       </c>
       <c r="O2" s="47"/>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="45" t="s">
+      <c r="T2" s="45"/>
+      <c r="U2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="44" t="s">
         <v>11</v>
       </c>
       <c r="W2" s="47"/>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44" t="s">
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="45" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="44" t="s">
         <v>11</v>
       </c>
       <c r="AE2" s="47"/>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44" t="s">
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="45" t="s">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AL2" s="45" t="s">
+      <c r="AL2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
+      <c r="A3" s="56"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1241,9 +1245,9 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="50"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1256,10 +1260,10 @@
       <c r="L3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
       <c r="O3" s="48"/>
-      <c r="P3" s="52"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1272,10 +1276,10 @@
       <c r="T3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
       <c r="W3" s="48"/>
-      <c r="X3" s="50"/>
+      <c r="X3" s="56"/>
       <c r="Y3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1288,10 +1292,10 @@
       <c r="AB3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
       <c r="AE3" s="48"/>
-      <c r="AF3" s="50"/>
+      <c r="AF3" s="56"/>
       <c r="AG3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1304,8 +1308,8 @@
       <c r="AJ3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
     </row>
     <row r="4" spans="1:38" s="23" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15"/>
@@ -2243,6 +2247,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W1:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="AF1:AL1"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE1:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AL2:AL3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -2259,23 +2280,6 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W1:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="AF1:AL1"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE1:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="AK2:AK3"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="3">
@@ -2347,51 +2351,51 @@
       <c r="E1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -2401,89 +2405,89 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45" t="s">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44" t="s">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2493,7 +2497,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
-      <c r="F3" s="50"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2506,9 +2510,9 @@
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="50"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2521,9 +2525,9 @@
       <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="50"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2536,9 +2540,9 @@
       <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="50"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="56"/>
       <c r="AB3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2551,9 +2555,9 @@
       <c r="AE3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="50"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="56"/>
       <c r="AI3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2566,8 +2570,8 @@
       <c r="AL3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -2907,24 +2911,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="A1:A3"/>
@@ -2941,6 +2927,24 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="8">
@@ -3028,51 +3032,51 @@
       <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -3085,89 +3089,89 @@
         <v>24</v>
       </c>
       <c r="F2" s="47"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44" t="s">
+      <c r="W2" s="45"/>
+      <c r="X2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="45" t="s">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3178,7 +3182,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="42"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="43" t="s">
         <v>12</v>
       </c>
@@ -3191,9 +3195,9 @@
       <c r="K3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="50"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="43" t="s">
         <v>12</v>
       </c>
@@ -3206,9 +3210,9 @@
       <c r="R3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="50"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="43" t="s">
         <v>12</v>
       </c>
@@ -3221,9 +3225,9 @@
       <c r="Y3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="50"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="56"/>
       <c r="AC3" s="43" t="s">
         <v>12</v>
       </c>
@@ -3236,9 +3240,9 @@
       <c r="AF3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="50"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="56"/>
       <c r="AJ3" s="43" t="s">
         <v>12</v>
       </c>
@@ -3251,8 +3255,8 @@
       <c r="AM3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -3677,20 +3681,11 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:M1"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="U1:AA1"/>
     <mergeCell ref="AB1:AH1"/>
@@ -3702,15 +3697,24 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:M1"/>
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AK2"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="7">
@@ -3745,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -3796,51 +3800,51 @@
       <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -3853,89 +3857,89 @@
         <v>24</v>
       </c>
       <c r="F2" s="47"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44" t="s">
+      <c r="W2" s="45"/>
+      <c r="X2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="45" t="s">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3946,7 +3950,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="5"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3959,9 +3963,9 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="50"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3974,9 +3978,9 @@
       <c r="R3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="50"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="4" t="s">
         <v>12</v>
       </c>
@@ -3989,9 +3993,9 @@
       <c r="Y3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="50"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="56"/>
       <c r="AC3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4004,9 +4008,9 @@
       <c r="AF3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="50"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="56"/>
       <c r="AJ3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4019,8 +4023,8 @@
       <c r="AM3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -4145,8 +4149,12 @@
       <c r="D6" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -4157,13 +4165,23 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="22"/>
       <c r="S6" s="18"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="24" t="s">
-        <v>29</v>
+      <c r="U6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="15">
+        <v>42371</v>
+      </c>
+      <c r="W6" s="15">
+        <v>42371</v>
+      </c>
+      <c r="X6" s="15">
+        <v>42371</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>42371</v>
+      </c>
+      <c r="Z6" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="AB6" s="15"/>
       <c r="AC6" s="15"/>
@@ -4242,7 +4260,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>26</v>
@@ -4260,12 +4278,20 @@
       <c r="U8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="24" t="s">
-        <v>29</v>
+      <c r="V8" s="15">
+        <v>42371</v>
+      </c>
+      <c r="W8" s="15">
+        <v>42371</v>
+      </c>
+      <c r="X8" s="15">
+        <v>42371</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>42371</v>
+      </c>
+      <c r="Z8" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="AB8" s="15"/>
       <c r="AC8" s="15"/>
@@ -4289,7 +4315,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>26</v>
@@ -4634,24 +4660,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="A1:A3"/>
@@ -4668,6 +4676,24 @@
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AI1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="7">
@@ -4750,51 +4776,51 @@
       <c r="E1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -4804,89 +4830,89 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45" t="s">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44" t="s">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4896,7 +4922,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
-      <c r="F3" s="50"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4909,9 +4935,9 @@
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="50"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4924,9 +4950,9 @@
       <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="50"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4939,9 +4965,9 @@
       <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="50"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="56"/>
       <c r="AB3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4954,9 +4980,9 @@
       <c r="AE3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="50"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="56"/>
       <c r="AI3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4969,8 +4995,8 @@
       <c r="AL3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -5412,24 +5438,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="A1:A3"/>
@@ -5446,6 +5454,24 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="9">
@@ -5534,51 +5560,51 @@
       <c r="E1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -5588,89 +5614,89 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45" t="s">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44" t="s">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5680,7 +5706,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
-      <c r="F3" s="50"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
@@ -5693,9 +5719,9 @@
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="50"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
@@ -5708,9 +5734,9 @@
       <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="50"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="4" t="s">
         <v>12</v>
       </c>
@@ -5723,9 +5749,9 @@
       <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="50"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="56"/>
       <c r="AB3" s="4" t="s">
         <v>12</v>
       </c>
@@ -5738,9 +5764,9 @@
       <c r="AE3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="50"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="56"/>
       <c r="AI3" s="4" t="s">
         <v>12</v>
       </c>
@@ -5753,8 +5779,8 @@
       <c r="AL3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -6096,24 +6122,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="A1:A3"/>
@@ -6130,6 +6138,24 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="8">
@@ -6215,51 +6241,51 @@
       <c r="E1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53" t="s">
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -6269,89 +6295,89 @@
       </c>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="44"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44" t="s">
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="45" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44" t="s">
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="45" t="s">
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AH2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AI2" s="44" t="s">
+      <c r="AI2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44" t="s">
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="45" t="s">
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="45" t="s">
+      <c r="AN2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6361,7 +6387,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
-      <c r="F3" s="50"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
@@ -6374,9 +6400,9 @@
       <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="50"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="56"/>
       <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
@@ -6389,9 +6415,9 @@
       <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="50"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="56"/>
       <c r="U3" s="4" t="s">
         <v>12</v>
       </c>
@@ -6404,9 +6430,9 @@
       <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="50"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="56"/>
       <c r="AB3" s="4" t="s">
         <v>12</v>
       </c>
@@ -6419,9 +6445,9 @@
       <c r="AE3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="50"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="56"/>
       <c r="AI3" s="4" t="s">
         <v>12</v>
       </c>
@@ -6434,8 +6460,8 @@
       <c r="AL3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" s="23" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -6941,24 +6967,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="M1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AG1"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="AM2:AM3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="A1:A3"/>
@@ -6975,6 +6983,24 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AG1"/>
+    <mergeCell ref="AH1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="9">
@@ -7065,51 +7091,51 @@
       <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -7122,89 +7148,89 @@
         <v>42</v>
       </c>
       <c r="F2" s="47"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44" t="s">
+      <c r="W2" s="45"/>
+      <c r="X2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="45" t="s">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -7215,7 +7241,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="38"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
@@ -7228,9 +7254,9 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="50"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
@@ -7243,9 +7269,9 @@
       <c r="R3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="50"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="4" t="s">
         <v>12</v>
       </c>
@@ -7258,9 +7284,9 @@
       <c r="Y3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="50"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="56"/>
       <c r="AC3" s="4" t="s">
         <v>12</v>
       </c>
@@ -7273,9 +7299,9 @@
       <c r="AF3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="50"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="56"/>
       <c r="AJ3" s="4" t="s">
         <v>12</v>
       </c>
@@ -7288,8 +7314,8 @@
       <c r="AM3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -7777,24 +7803,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="A1:A3"/>
@@ -7811,6 +7819,24 @@
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AI1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="7">
@@ -7894,51 +7920,51 @@
       <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -7951,89 +7977,89 @@
         <v>42</v>
       </c>
       <c r="F2" s="47"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44" t="s">
+      <c r="W2" s="45"/>
+      <c r="X2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="45" t="s">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8044,7 +8070,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="38"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8057,9 +8083,9 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="50"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8072,9 +8098,9 @@
       <c r="R3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="50"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8087,9 +8113,9 @@
       <c r="Y3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="50"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="56"/>
       <c r="AC3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8102,9 +8128,9 @@
       <c r="AF3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="50"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="56"/>
       <c r="AJ3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8117,8 +8143,8 @@
       <c r="AM3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -8514,24 +8540,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="A1:A3"/>
@@ -8548,6 +8556,24 @@
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AI1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="7">
@@ -8631,51 +8657,51 @@
       <c r="F1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53" t="s">
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53" t="s">
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -8688,89 +8714,89 @@
         <v>42</v>
       </c>
       <c r="F2" s="47"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45" t="s">
+      <c r="K2" s="45"/>
+      <c r="L2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44" t="s">
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44" t="s">
+      <c r="W2" s="45"/>
+      <c r="X2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="45" t="s">
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44" t="s">
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="45" t="s">
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="49" t="s">
+      <c r="AI2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44" t="s">
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" s="45" t="s">
+      <c r="AO2" s="44" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8781,7 +8807,7 @@
       <c r="D3" s="48"/>
       <c r="E3" s="38"/>
       <c r="F3" s="48"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8794,9 +8820,9 @@
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="50"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="56"/>
       <c r="O3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8809,9 +8835,9 @@
       <c r="R3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="50"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="56"/>
       <c r="V3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8824,9 +8850,9 @@
       <c r="Y3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="50"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="56"/>
       <c r="AC3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8839,9 +8865,9 @@
       <c r="AF3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="50"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="56"/>
       <c r="AJ3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8854,8 +8880,8 @@
       <c r="AM3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="49.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -9456,24 +9482,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="U1:AA1"/>
-    <mergeCell ref="AB1:AH1"/>
-    <mergeCell ref="AI1:AO1"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
     <mergeCell ref="AN2:AN3"/>
     <mergeCell ref="AO2:AO3"/>
     <mergeCell ref="A1:A3"/>
@@ -9490,6 +9498,24 @@
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="U1:AA1"/>
+    <mergeCell ref="AB1:AH1"/>
+    <mergeCell ref="AI1:AO1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="8">
